--- a/trunk/database.xlsx
+++ b/trunk/database.xlsx
@@ -379,10 +379,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,8 +730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15"/>
